--- a/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,9</t>
+          <t>-0,3; 7,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,89</t>
+          <t>-2,83; 3,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 15,52</t>
+          <t>4,72; 15,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,93</t>
+          <t>-7,75; -1,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,97</t>
+          <t>3,83; 10,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,57</t>
+          <t>-4,12; 0,45</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 405,51</t>
+          <t>-14,45; 361,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,78; 210,51</t>
+          <t>-54,85; 153,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,95; 354,12</t>
+          <t>54,28; 356,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,4; -11,88</t>
+          <t>-81,31; -20,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,8; 274,78</t>
+          <t>60,94; 289,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 15,76</t>
+          <t>-63,32; 15,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,53</t>
+          <t>-3,25; 1,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,6</t>
+          <t>-2,96; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,78</t>
+          <t>-1,83; 4,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,31</t>
+          <t>-2,78; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 7,64</t>
+          <t>1,12; 8,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,03</t>
+          <t>-1,57; 4,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,69</t>
+          <t>-1,97; 1,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,57</t>
+          <t>0,27; 4,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,15</t>
+          <t>-0,75; 3,2</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,35; 60,96</t>
+          <t>-67,01; 67,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 64,88</t>
+          <t>-59,1; 69,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 152,0</t>
+          <t>-42,52; 162,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 78,38</t>
+          <t>-36,62; 77,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 180,56</t>
+          <t>13,37; 192,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 96,1</t>
+          <t>-21,36; 97,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 44,03</t>
+          <t>-37,17; 45,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 118,62</t>
+          <t>3,46; 113,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 83,56</t>
+          <t>-14,07; 82,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,28</t>
+          <t>0,58; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,44</t>
+          <t>0,31; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,18</t>
+          <t>1,42; 6,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,98</t>
+          <t>-0,55; 2,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 12,29</t>
+          <t>5,14; 11,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,11</t>
+          <t>3,46; 8,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,86</t>
+          <t>0,35; 2,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,29</t>
+          <t>3,29; 7,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,3</t>
+          <t>3,06; 6,48</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,81; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>206,88; 4204,08</t>
+          <t>234,45; 3893,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>128,74; 2605,87</t>
+          <t>151,19; 2565,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1203,09</t>
+          <t>11,56; 1205,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>204,45; 3807,38</t>
+          <t>251,69; 3429,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>214,44; 3175,5</t>
+          <t>223,62; 3346,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,75</t>
+          <t>-1,07; 2,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,39</t>
+          <t>0,31; 5,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,0</t>
+          <t>1,53; 8,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,23</t>
+          <t>0,99; 6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,05</t>
+          <t>1,15; 7,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,49</t>
+          <t>-1,41; 4,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,94</t>
+          <t>0,51; 3,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,9</t>
+          <t>1,27; 5,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,25</t>
+          <t>0,48; 5,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 298,01</t>
+          <t>-40,18; 307,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 589,32</t>
+          <t>-4,44; 529,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,32; 860,77</t>
+          <t>28,15; 747,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,46; 259,84</t>
+          <t>16,1; 260,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,34; 291,41</t>
+          <t>20,67; 268,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 163,14</t>
+          <t>-28,79; 165,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,56; 184,72</t>
+          <t>10,83; 192,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,5; 265,87</t>
+          <t>33,43; 280,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,74; 232,56</t>
+          <t>4,2; 226,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,94</t>
+          <t>0,97; 10,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 7,85</t>
+          <t>-0,69; 7,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,45</t>
+          <t>-5,85; -0,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 12,78</t>
+          <t>0,9; 12,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,35; 13,02</t>
+          <t>1,21; 12,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -1,12</t>
+          <t>-8,94; -0,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,96</t>
+          <t>2,52; 10,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,77</t>
+          <t>1,34; 8,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -1,32</t>
+          <t>-6,59; -1,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,27; 438,04</t>
+          <t>8,88; 497,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 314,13</t>
+          <t>-17,87; 366,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,73; 9,32</t>
+          <t>-93,48; 16,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,56; 278,44</t>
+          <t>2,17; 268,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,49; 268,08</t>
+          <t>6,91; 273,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-82,57; -18,65</t>
+          <t>-83,7; -18,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,0; 243,51</t>
+          <t>34,24; 246,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,45; 229,01</t>
+          <t>13,16; 207,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,27; -31,53</t>
+          <t>-81,71; -33,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,03</t>
+          <t>-2,95; 0,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,04</t>
+          <t>0,4; 6,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,24</t>
+          <t>0,24; 4,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,17</t>
+          <t>-3,43; 2,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,8; 13,3</t>
+          <t>4,2; 13,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,33</t>
+          <t>-2,78; 3,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,09</t>
+          <t>-2,15; 1,25</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,66</t>
+          <t>3,28; 8,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,5</t>
+          <t>-0,37; 3,45</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1031,55</t>
+          <t>-10,06; 1214,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 892,46</t>
+          <t>-5,71; 1027,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-60,61; 157,82</t>
+          <t>-63,16; 138,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>54,05; 600,54</t>
+          <t>57,76; 552,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 169,2</t>
+          <t>-49,74; 141,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 72,91</t>
+          <t>-64,78; 86,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>87,97; 518,35</t>
+          <t>89,15; 471,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 212,89</t>
+          <t>-11,18; 216,31</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,58</t>
+          <t>-0,51; 2,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,6</t>
+          <t>0,57; 4,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,08</t>
+          <t>1,69; 6,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,72</t>
+          <t>-2,95; 0,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,55</t>
+          <t>4,8; 10,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,06; 49,0</t>
+          <t>2,82; 45,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,23</t>
+          <t>-1,34; 1,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,92</t>
+          <t>3,42; 6,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,2; 34,47</t>
+          <t>3,21; 32,71</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 229,28</t>
+          <t>-24,75; 207,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>22,26; 443,44</t>
+          <t>17,6; 352,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>65,05; 521,0</t>
+          <t>62,98; 529,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 38,66</t>
+          <t>-68,78; 34,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>102,04; 419,3</t>
+          <t>101,73; 413,61</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>78,55; 1822,92</t>
+          <t>75,29; 1680,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 64,85</t>
+          <t>-42,02; 51,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>100,26; 341,06</t>
+          <t>106,26; 351,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>112,41; 1599,96</t>
+          <t>110,44; 1667,55</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,05</t>
+          <t>-3,24; 0,96</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,93</t>
+          <t>-1,53; 2,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,54</t>
+          <t>3,72; 9,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,1</t>
+          <t>-4,09; 0,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,93</t>
+          <t>1,99; 7,63</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,16</t>
+          <t>3,97; 9,55</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,03</t>
+          <t>-3,1; -0,03</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,76</t>
+          <t>1,05; 4,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,82</t>
+          <t>4,84; 8,75</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-58,33; 37,42</t>
+          <t>-60,46; 35,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 100,83</t>
+          <t>-29,6; 86,7</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>70,33; 310,37</t>
+          <t>66,99; 314,16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-60,0; 6,51</t>
+          <t>-60,4; 2,95</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>30,96; 185,69</t>
+          <t>27,26; 182,69</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>53,61; 206,76</t>
+          <t>55,96; 226,09</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 2,04</t>
+          <t>-53,47; 0,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>16,95; 118,92</t>
+          <t>17,85; 113,57</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>81,23; 225,2</t>
+          <t>81,69; 213,7</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,2</t>
+          <t>-0,5; 1,15</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,68</t>
+          <t>0,86; 2,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,49</t>
+          <t>2,38; 4,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,41</t>
+          <t>-0,7; 1,44</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,82</t>
+          <t>5,23; 7,78</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,87</t>
+          <t>2,25; 14,81</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,04</t>
+          <t>-0,28; 1,02</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,97</t>
+          <t>3,43; 5,03</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,56</t>
+          <t>2,77; 9,67</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 51,4</t>
+          <t>-16,05; 51,74</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>28,37; 114,37</t>
+          <t>25,12; 114,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>72,14; 187,0</t>
+          <t>73,92; 196,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 35,66</t>
+          <t>-13,43; 35,03</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>103,96; 193,78</t>
+          <t>102,45; 192,29</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>49,29; 344,32</t>
+          <t>46,05; 334,04</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 31,78</t>
+          <t>-7,55; 30,17</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>83,07; 147,8</t>
+          <t>86,62; 149,53</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>69,87; 286,41</t>
+          <t>73,07; 282,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,94</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,41</t>
+          <t>-3,13; 2,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 4,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -1,03</t>
+          <t>-7,92; -1,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 2,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,45</t>
+          <t>-4,48; 0,17</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,36%</t>
+          <t>-62,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,48%</t>
+          <t>-38,99%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,59; 167,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,85; 153,32</t>
+          <t>-60,83; 137,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,93; 96,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -20,69</t>
+          <t>-82,35; -25,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,5; 67,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 15,38</t>
+          <t>-66,44; 7,19</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,15</t>
+          <t>-3,56; 1,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,11</t>
+          <t>-2,61; 2,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,2</t>
+          <t>-2,2; 1,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>-34,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 162,81</t>
+          <t>-71,06; 42,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 97,57</t>
+          <t>-34,77; 67,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 82,98</t>
+          <t>-38,12; 28,33</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>3,81</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,05</t>
+          <t>1,39; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,12</t>
+          <t>2,37; 6,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,48</t>
+          <t>2,39; 5,58</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1059,32%</t>
+          <t>1068,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>645,04%</t>
+          <t>499,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>760,8%</t>
+          <t>645,62%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>151,19; 2565,08</t>
+          <t>97,75; 2171,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>223,62; 3346,03</t>
+          <t>163,38; 2863,81</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,37 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>3,65</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,78</t>
+          <t>-1,56; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,28</t>
+          <t>1,04; 7,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,49</t>
+          <t>1,33; 7,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,36</t>
+          <t>-3,28; 1,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,96</t>
+          <t>0,58; 4,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,18</t>
+          <t>-0,77; 3,6</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,67%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>220,82%</t>
+          <t>196,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>115,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>47,22%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 307,58</t>
+          <t>-60,26; 263,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,15; 747,44</t>
+          <t>18,48; 681,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,1; 260,93</t>
+          <t>16,17; 262,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 165,5</t>
+          <t>-61,58; 73,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,83; 192,29</t>
+          <t>12,93; 215,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,2; 226,72</t>
+          <t>-24,2; 163,13</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-3,72</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,21</t>
+          <t>-5,86; -0,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -0,97</t>
+          <t>-9,33; -1,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,5</t>
+          <t>-7,02; -1,69</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-71,17%</t>
+          <t>-71,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-63,33%</t>
+          <t>-66,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-64,44%</t>
+          <t>-66,53%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,48; 16,65</t>
+          <t>-93,62; 14,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-83,7; -18,44</t>
+          <t>-86,76; -27,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,71; -33,93</t>
+          <t>-83,69; -37,39</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,99</t>
+          <t>0,14; 4,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,04</t>
+          <t>-2,98; 2,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,45</t>
+          <t>-0,5; 3,28</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>178,43%</t>
+          <t>172,21%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>53,15%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1027,77</t>
+          <t>-8,16; 1001,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 141,47</t>
+          <t>-50,99; 127,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 216,31</t>
+          <t>-14,92; 202,35</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,36</t>
+          <t>25,43</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>16,11</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,21</t>
+          <t>1,19; 5,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,82; 45,8</t>
+          <t>2,16; 61,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,21; 32,71</t>
+          <t>2,54; 46,27</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>215,71%</t>
+          <t>179,13%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>478,93%</t>
+          <t>744,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>419,71%</t>
+          <t>617,7%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62,98; 529,51</t>
+          <t>39,89; 472,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>75,29; 1680,2</t>
+          <t>57,37; 2442,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>110,44; 1667,55</t>
+          <t>85,64; 2457,42</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>-2,22</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,96</t>
+          <t>-3,28; 0,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,64</t>
+          <t>-1,62; 2,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,53</t>
+          <t>-4,73; -0,75</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,09</t>
+          <t>-4,31; -0,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,63</t>
+          <t>1,86; 7,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,55</t>
+          <t>-3,85; 0,48</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,03</t>
+          <t>-3,21; -0,09</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,71</t>
+          <t>0,9; 4,61</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,75</t>
+          <t>-4,12; -0,96</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>-28,7%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>163,69%</t>
+          <t>-58,81%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-35,5%</t>
+          <t>-37,15%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>119,03%</t>
+          <t>-27,43%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-31,62%</t>
+          <t>-33,64%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>137,12%</t>
+          <t>-44,11%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-60,46; 35,06</t>
+          <t>-60,97; 31,3</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 86,7</t>
+          <t>-31,6; 76,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>66,99; 314,16</t>
+          <t>-85,38; -24,08</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-60,4; 2,95</t>
+          <t>-61,15; 0,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>27,26; 182,69</t>
+          <t>25,45; 176,04</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>55,96; 226,09</t>
+          <t>-51,99; 11,99</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 0,9</t>
+          <t>-54,72; -1,23</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>17,85; 113,57</t>
+          <t>14,38; 106,28</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>81,69; 213,7</t>
+          <t>-67,43; -23,66</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,15</t>
+          <t>-0,53; 1,13</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,72</t>
+          <t>0,8; 2,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,61</t>
+          <t>-0,42; 1,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,44</t>
+          <t>-0,71; 1,4</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,78</t>
+          <t>5,19; 7,78</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,25; 14,81</t>
+          <t>-0,36; 21,68</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,02</t>
+          <t>-0,32; 0,98</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,03</t>
+          <t>3,38; 5,0</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,67</t>
+          <t>0,05; 12,42</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>124,04%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>142,24%</t>
+          <t>140,44%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>115,88%</t>
+          <t>113,66%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>112,21%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>121,25%</t>
+          <t>79,97%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 51,74</t>
+          <t>-17,06; 48,67</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>25,12; 114,87</t>
+          <t>23,91; 110,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>73,92; 196,53</t>
+          <t>-13,61; 59,37</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 35,03</t>
+          <t>-14,37; 33,57</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>102,45; 192,29</t>
+          <t>101,58; 191,26</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>46,05; 334,04</t>
+          <t>-7,53; 540,21</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 30,17</t>
+          <t>-8,16; 29,03</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>86,62; 149,53</t>
+          <t>84,69; 146,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>73,07; 282,98</t>
+          <t>1,24; 358,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 3,05</t>
+          <t>-3,14; 2,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,83</t>
+          <t>0,09; 7,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,96</t>
+          <t>-3,18; 3,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,2</t>
+          <t>-4,47; 4,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,44</t>
+          <t>3,91; 15,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -1,21</t>
+          <t>-7,64; -1,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,47</t>
+          <t>-2,7; 2,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 10,34</t>
+          <t>3,51; 10,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,17</t>
+          <t>-4,36; 0,44</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 167,65</t>
+          <t>-61,4; 132,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 361,15</t>
+          <t>-5,47; 347,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 137,14</t>
+          <t>-62,27; 163,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 96,05</t>
+          <t>-50,91; 95,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,28; 356,47</t>
+          <t>42,24; 317,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,35; -25,21</t>
+          <t>-81,46; -20,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 67,48</t>
+          <t>-42,2; 70,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,94; 289,7</t>
+          <t>58,28; 282,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 7,19</t>
+          <t>-66,81; 18,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,72</t>
+          <t>-3,28; 1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,8</t>
+          <t>-2,69; 1,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,01</t>
+          <t>-3,47; 0,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,31</t>
+          <t>-2,77; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,05</t>
+          <t>1,11; 7,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,85</t>
+          <t>-2,3; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,73</t>
+          <t>-2,16; 1,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,31</t>
+          <t>0,15; 4,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,05</t>
+          <t>-2,12; 1,32</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 67,82</t>
+          <t>-67,07; 73,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 69,34</t>
+          <t>-56,3; 75,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 42,6</t>
+          <t>-70,59; 35,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 77,8</t>
+          <t>-38,83; 73,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 192,49</t>
+          <t>12,39; 175,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 67,84</t>
+          <t>-31,46; 77,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 45,26</t>
+          <t>-38,9; 49,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 113,01</t>
+          <t>1,1; 115,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 28,33</t>
+          <t>-37,87; 33,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,08</t>
+          <t>0,57; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,55</t>
+          <t>0,31; 3,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,53</t>
+          <t>1,4; 6,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,96</t>
+          <t>-0,53; 2,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,65</t>
+          <t>5,52; 11,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,48</t>
+          <t>2,17; 6,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,69</t>
+          <t>0,44; 2,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,12</t>
+          <t>3,44; 7,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,58</t>
+          <t>2,48; 5,54</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,69; 1109,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>234,45; 3893,74</t>
+          <t>239,11; 3826,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,75; 2171,79</t>
+          <t>97,82; 2186,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 1205,75</t>
+          <t>20,17; 1349,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>251,69; 3429,4</t>
+          <t>252,24; 3960,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>163,38; 2863,81</t>
+          <t>188,77; 2967,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,62</t>
+          <t>-1,56; 2,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,68</t>
+          <t>0,21; 5,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,61</t>
+          <t>1,04; 7,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,9</t>
+          <t>1,44; 8,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,95</t>
+          <t>1,34; 8,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,99</t>
+          <t>-3,21; 2,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,7</t>
+          <t>0,67; 4,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,74</t>
+          <t>1,54; 5,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,6</t>
+          <t>-0,51; 3,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,26; 263,72</t>
+          <t>-57,72; 269,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 529,93</t>
+          <t>-10,62; 542,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,48; 681,58</t>
+          <t>9,89; 689,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,17; 262,01</t>
+          <t>20,94; 294,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,67; 268,56</t>
+          <t>20,39; 313,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 73,47</t>
+          <t>-59,99; 83,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,93; 215,72</t>
+          <t>13,03; 211,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,43; 280,54</t>
+          <t>39,2; 265,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 163,13</t>
+          <t>-14,69; 171,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,73</t>
+          <t>1,07; 10,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,98</t>
+          <t>-1,0; 7,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -0,22</t>
+          <t>-5,9; -0,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 12,72</t>
+          <t>0,25; 12,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 12,38</t>
+          <t>0,06; 12,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -1,34</t>
+          <t>-9,54; -1,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,16</t>
+          <t>2,28; 10,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,8</t>
+          <t>1,51; 8,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -1,69</t>
+          <t>-6,42; -1,41</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,88; 497,19</t>
+          <t>5,74; 444,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 366,3</t>
+          <t>-29,86; 314,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,62; 14,71</t>
+          <t>-93,15; 13,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,17; 268,5</t>
+          <t>-6,18; 271,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,91; 273,72</t>
+          <t>-4,25; 271,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,76; -27,21</t>
+          <t>-87,32; -32,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>34,24; 246,26</t>
+          <t>26,73; 257,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,16; 207,64</t>
+          <t>14,34; 203,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,69; -37,39</t>
+          <t>-83,37; -34,06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,31</t>
+          <t>-3,26; 0,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,32</t>
+          <t>0,54; 6,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,84</t>
+          <t>0,09; 4,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,84</t>
+          <t>-3,15; 2,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,25</t>
+          <t>4,19; 13,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 2,68</t>
+          <t>-2,94; 2,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,25</t>
+          <t>-2,19; 1,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,66</t>
+          <t>2,99; 8,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,28</t>
+          <t>-0,51; 3,13</t>
         </is>
       </c>
     </row>
@@ -1876,49 +1876,49 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 1214,34</t>
+          <t>-4,27; 1230,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1001,95</t>
+          <t>-15,49; 910,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,16; 138,32</t>
+          <t>-62,36; 142,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>57,76; 552,0</t>
+          <t>63,2; 576,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 127,15</t>
+          <t>-54,69; 144,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 86,01</t>
+          <t>-64,7; 79,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>89,15; 471,95</t>
+          <t>75,85; 521,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 202,35</t>
+          <t>-16,33; 182,19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,53</t>
+          <t>-0,54; 2,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,27</t>
+          <t>0,68; 4,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,56</t>
+          <t>1,02; 5,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,75</t>
+          <t>-2,8; 0,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,46</t>
+          <t>4,7; 10,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,16; 61,91</t>
+          <t>2,17; 56,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,07</t>
+          <t>-1,31; 1,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,97</t>
+          <t>3,25; 6,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,54; 46,27</t>
+          <t>2,46; 47,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 207,74</t>
+          <t>-25,15; 256,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17,6; 352,75</t>
+          <t>22,19; 442,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>39,89; 472,1</t>
+          <t>33,51; 501,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-68,78; 34,17</t>
+          <t>-65,96; 41,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>101,73; 413,61</t>
+          <t>98,82; 446,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>57,37; 2442,12</t>
+          <t>55,72; 2800,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 51,44</t>
+          <t>-40,12; 55,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>106,26; 351,5</t>
+          <t>94,13; 326,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>85,64; 2457,42</t>
+          <t>82,88; 1956,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,85</t>
+          <t>-3,22; 0,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,48</t>
+          <t>-1,68; 2,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -0,75</t>
+          <t>-4,52; -0,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,31; -0,12</t>
+          <t>-4,25; -0,04</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,52</t>
+          <t>2,01; 7,82</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,48</t>
+          <t>-3,85; 0,44</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,21; -0,09</t>
+          <t>-3,31; -0,19</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,61</t>
+          <t>0,77; 4,5</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -0,96</t>
+          <t>-4,02; -0,76</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 31,3</t>
+          <t>-60,76; 29,6</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 76,11</t>
+          <t>-30,38; 86,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-85,38; -24,08</t>
+          <t>-85,51; -25,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 0,2</t>
+          <t>-60,77; -1,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>25,45; 176,04</t>
+          <t>26,16; 166,13</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-51,99; 11,99</t>
+          <t>-53,2; 10,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-54,72; -1,23</t>
+          <t>-55,6; -2,89</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,38; 106,28</t>
+          <t>13,06; 106,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-67,43; -23,66</t>
+          <t>-67,01; -19,1</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,13</t>
+          <t>-0,55; 1,11</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,68</t>
+          <t>0,82; 2,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,43</t>
+          <t>-0,51; 1,51</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,4</t>
+          <t>-0,6; 1,41</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,78</t>
+          <t>5,17; 7,8</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 21,68</t>
+          <t>-0,25; 22,37</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,98</t>
+          <t>-0,39; 0,97</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,0</t>
+          <t>3,26; 4,94</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,05; 12,42</t>
+          <t>-0,01; 12,78</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 48,67</t>
+          <t>-17,69; 46,48</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>23,91; 110,49</t>
+          <t>24,92; 113,86</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 59,37</t>
+          <t>-16,08; 63,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 33,57</t>
+          <t>-12,0; 34,39</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>101,58; 191,26</t>
+          <t>100,0; 189,91</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 540,21</t>
+          <t>-5,12; 516,71</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 29,03</t>
+          <t>-9,97; 27,58</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>84,69; 146,99</t>
+          <t>79,92; 143,89</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>1,24; 358,16</t>
+          <t>-0,52; 356,2</t>
         </is>
       </c>
     </row>
